--- a/data/student_example.xlsx
+++ b/data/student_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t xml:space="preserve">Имя</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Литера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">Work number</t>
@@ -170,13 +173,13 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.35"/>
   </cols>
   <sheetData>
@@ -201,7 +204,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>41640</v>
+        <v>41664</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -215,6 +218,9 @@
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -235,11 +241,11 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.27"/>
@@ -247,16 +253,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -270,7 +276,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,7 +290,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -298,7 +304,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -345,7 +351,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
@@ -354,16 +360,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,7 +383,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,7 +397,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,7 +411,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,23 +458,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,7 +563,7 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
@@ -566,16 +572,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -589,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/student_example.xlsx
+++ b/data/student_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t xml:space="preserve">Имя</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">помарки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimate</t>
   </si>
 </sst>
 </file>
@@ -173,8 +170,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="C1 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -242,7 +239,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -251,7 +248,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>8</v>
       </c>
@@ -348,7 +345,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -358,7 +355,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>8</v>
       </c>
@@ -366,7 +363,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>11</v>
@@ -455,7 +452,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -463,7 +460,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>8</v>
       </c>
@@ -471,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>11</v>
@@ -559,8 +556,8 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -570,7 +567,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>8</v>
       </c>
@@ -578,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>11</v>

--- a/data/student_example.xlsx
+++ b/data/student_example.xlsx
@@ -171,7 +171,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="C1 C10"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -557,7 +557,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -589,7 +589,7 @@
         <v>44449</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>12</v>
@@ -603,7 +603,7 @@
         <v>44815</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>12</v>
@@ -631,7 +631,7 @@
         <v>45182</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/student_example.xlsx
+++ b/data/student_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="student" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t xml:space="preserve">Имя</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Литера</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Work number</t>
   </si>
   <si>
@@ -63,9 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">помарки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimate</t>
   </si>
 </sst>
 </file>
@@ -171,12 +171,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.35"/>
   </cols>
   <sheetData>
@@ -201,7 +201,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>41640</v>
+        <v>41664</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -215,6 +215,9 @@
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -235,28 +238,28 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -270,7 +273,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,7 +287,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -298,7 +301,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -342,28 +345,28 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -377,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,7 +394,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -405,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,26 +452,26 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -482,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,7 +513,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,29 +556,29 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,10 +589,10 @@
         <v>44449</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,10 +603,10 @@
         <v>44815</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,7 +631,7 @@
         <v>45182</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
